--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema6a-Plxna2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.871494</v>
+        <v>52.049028</v>
       </c>
       <c r="H2">
-        <v>74.61448200000001</v>
+        <v>156.147084</v>
       </c>
       <c r="I2">
-        <v>0.5523409677800469</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="J2">
-        <v>0.552340967780047</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.186605</v>
+        <v>36.923013</v>
       </c>
       <c r="N2">
-        <v>60.559815</v>
+        <v>110.769039</v>
       </c>
       <c r="O2">
-        <v>0.6134655823028334</v>
+        <v>0.7437819354528793</v>
       </c>
       <c r="P2">
-        <v>0.6134655823028335</v>
+        <v>0.7437819354528794</v>
       </c>
       <c r="Q2">
-        <v>502.07102513787</v>
+        <v>1921.806937481364</v>
       </c>
       <c r="R2">
-        <v>4518.639226240831</v>
+        <v>17296.26243733228</v>
       </c>
       <c r="S2">
-        <v>0.3388421734288971</v>
+        <v>0.5361425893958524</v>
       </c>
       <c r="T2">
-        <v>0.3388421734288972</v>
+        <v>0.5361425893958525</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.871494</v>
+        <v>52.049028</v>
       </c>
       <c r="H3">
-        <v>74.61448200000001</v>
+        <v>156.147084</v>
       </c>
       <c r="I3">
-        <v>0.5523409677800469</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="J3">
-        <v>0.552340967780047</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.317095</v>
       </c>
       <c r="O3">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="P3">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="Q3">
-        <v>168.43883546331</v>
+        <v>352.49501551122</v>
       </c>
       <c r="R3">
-        <v>1515.94951916979</v>
+        <v>3172.45513960098</v>
       </c>
       <c r="S3">
-        <v>0.113677504258581</v>
+        <v>0.09833848899150896</v>
       </c>
       <c r="T3">
-        <v>0.113677504258581</v>
+        <v>0.09833848899150896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.871494</v>
+        <v>52.049028</v>
       </c>
       <c r="H4">
-        <v>74.61448200000001</v>
+        <v>156.147084</v>
       </c>
       <c r="I4">
-        <v>0.5523409677800469</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="J4">
-        <v>0.552340967780047</v>
+        <v>0.7208330343078339</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>17.840633</v>
       </c>
       <c r="O4">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249253</v>
       </c>
       <c r="P4">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249254</v>
       </c>
       <c r="Q4">
-        <v>147.907732205234</v>
+        <v>309.529202184908</v>
       </c>
       <c r="R4">
-        <v>1331.169589847106</v>
+        <v>2785.762819664172</v>
       </c>
       <c r="S4">
-        <v>0.09982129009256888</v>
+        <v>0.08635195592047247</v>
       </c>
       <c r="T4">
-        <v>0.0998212900925689</v>
+        <v>0.08635195592047247</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>20.183541</v>
       </c>
       <c r="I5">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="J5">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.186605</v>
+        <v>36.923013</v>
       </c>
       <c r="N5">
-        <v>60.559815</v>
+        <v>110.769039</v>
       </c>
       <c r="O5">
-        <v>0.6134655823028334</v>
+        <v>0.7437819354528793</v>
       </c>
       <c r="P5">
-        <v>0.6134655823028335</v>
+        <v>0.7437819354528794</v>
       </c>
       <c r="Q5">
-        <v>135.812389889435</v>
+        <v>248.412382243011</v>
       </c>
       <c r="R5">
-        <v>1222.311509004915</v>
+        <v>2235.711440187099</v>
       </c>
       <c r="S5">
-        <v>0.09165827754364433</v>
+        <v>0.06930168439724017</v>
       </c>
       <c r="T5">
-        <v>0.09165827754364435</v>
+        <v>0.06930168439724019</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>20.183541</v>
       </c>
       <c r="I6">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="J6">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.317095</v>
       </c>
       <c r="O6">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="P6">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="Q6">
         <v>45.563435548155</v>
@@ -818,10 +818,10 @@
         <v>410.0709199333949</v>
       </c>
       <c r="S6">
-        <v>0.03075025794564578</v>
+        <v>0.01271121351480486</v>
       </c>
       <c r="T6">
-        <v>0.03075025794564578</v>
+        <v>0.01271121351480486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>20.183541</v>
       </c>
       <c r="I7">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="J7">
-        <v>0.1494106274056591</v>
+        <v>0.09317473454775864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>17.840633</v>
       </c>
       <c r="O7">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249253</v>
       </c>
       <c r="P7">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249254</v>
       </c>
       <c r="Q7">
         <v>40.00968306905033</v>
@@ -880,10 +880,10 @@
         <v>360.087147621453</v>
       </c>
       <c r="S7">
-        <v>0.02700209191636897</v>
+        <v>0.0111618366357136</v>
       </c>
       <c r="T7">
-        <v>0.02700209191636897</v>
+        <v>0.0111618366357136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>40.289697</v>
       </c>
       <c r="I8">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="J8">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.186605</v>
+        <v>36.923013</v>
       </c>
       <c r="N8">
-        <v>60.559815</v>
+        <v>110.769039</v>
       </c>
       <c r="O8">
-        <v>0.6134655823028334</v>
+        <v>0.7437819354528793</v>
       </c>
       <c r="P8">
-        <v>0.6134655823028335</v>
+        <v>0.7437819354528794</v>
       </c>
       <c r="Q8">
-        <v>271.104066302895</v>
+        <v>495.872335365687</v>
       </c>
       <c r="R8">
-        <v>2439.936596726055</v>
+        <v>4462.851018291183</v>
       </c>
       <c r="S8">
-        <v>0.182965131330292</v>
+        <v>0.1383376616597868</v>
       </c>
       <c r="T8">
-        <v>0.1829651313302921</v>
+        <v>0.1383376616597868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>40.289697</v>
       </c>
       <c r="I9">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="J9">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>20.317095</v>
       </c>
       <c r="O9">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="P9">
-        <v>0.2058103796201654</v>
+        <v>0.1364233939221953</v>
       </c>
       <c r="Q9">
-        <v>90.95217794113499</v>
+        <v>90.95217794113501</v>
       </c>
       <c r="R9">
-        <v>818.5696014702148</v>
+        <v>818.569601470215</v>
       </c>
       <c r="S9">
-        <v>0.0613826174159386</v>
+        <v>0.02537369141588152</v>
       </c>
       <c r="T9">
-        <v>0.0613826174159386</v>
+        <v>0.02537369141588152</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>40.289697</v>
       </c>
       <c r="I10">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="J10">
-        <v>0.298248404814294</v>
+        <v>0.1859922311444076</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>17.840633</v>
       </c>
       <c r="O10">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249253</v>
       </c>
       <c r="P10">
-        <v>0.1807240380770012</v>
+        <v>0.1197946706249254</v>
       </c>
       <c r="Q10">
-        <v>79.86596642868899</v>
+        <v>79.86596642868901</v>
       </c>
       <c r="R10">
-        <v>718.793697858201</v>
+        <v>718.7936978582011</v>
       </c>
       <c r="S10">
-        <v>0.05390065606806332</v>
+        <v>0.02228087806873929</v>
       </c>
       <c r="T10">
-        <v>0.05390065606806333</v>
+        <v>0.02228087806873929</v>
       </c>
     </row>
   </sheetData>
